--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2036,6 +2036,861 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>An exhausting distillation of everything that can possibly go wrong with a blockbuster.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Michael Bay has promised that this is the last Transformers movie he will direct, which is no small relief. It will not, alas, be the last Transformers movie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Transformers: The Last Knight is the pinnacle of summer blockbuster stupidity. The only thing that could top it is another Transformers sequel, a nightmare to imagine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>The end of the world can't come soon enough in Transformers: The Last Knight.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Though convoluted and mostly indistinguishable from piffle, it's by no means the worst of the bunch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Regardless of our opinions, we all know what a Michael Bay film is. This one's his most Baysome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Perhaps you need to be huffing petrol fumes (or whatever it is that the autobots run on) but 149 minutes have rarely felt so interminable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>I can barely summon a feeling about The Last Knight; if anything, I feel slightly worried about how little I hated it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>I'm not sure they're even trying anymore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>The pinnacle of blockbuster gigantism, Bay's latest is a chore except when its madness becomes so sensorially all-consuming -- blinding the eyes, deafening the ears, befuddling the mind -- that it achieves a sort of terrible abstract grandeur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>This film just doesn't stop moving. The camera swirls around every shoot-out, every fight, every conversation. Nothing is still. Everyone shouts. The tone is hysterical and everyone is angry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>A movie that's cut like the world's longest and most tedious trailer, pinballing from scene to scene and rarely spending more than a few seconds on any single shot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>This latest entry is simply dumb, dull, and pointless.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>I am not going to try to explain the story- after watching this movie I may never try to explain another story ever again.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>All the best moments in the movie-pure images, devoid of symbol and, for that matter, nearly empty of sense-go by too fast, are held too briefly, are developed too little.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Distilled to its essence, The Last Knight is an orgy of incoherence, a sensory assault that suffocates the viewer in a cavalcade of special effects incontinence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Every time Michael Bay directs another Transformers abomination (this is the fifth), the movies die a little. This one makes the summer's other blockbuster misfires look like masterpieces.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Elsewhere, it's business as usual. Sparks fly, smoke drifts. Gleaming bodies, human and mechanical, loom over us, often set against pristine blue sky.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Michael Bay is back with another mammoth budget to throw at the screen in the latest Transformers monstrosity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Insultingly poor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Will this film make you feel as if you've gone on a chairoplane after drinking a vat of Bailey's Irish Cream? You'd better believe it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>A movie that is at once loud yet incoherent, complex yet idiotic, and expensive yet worthless.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Either this movie is dumb or I am.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>One of this franchise's strengths is that it manages to balance high-stakes action and explosions with gusts of humor. The rescue of Earth and mankind comes with jokes and treats for all audiences to enjoy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>If for some reason the drawn-out and incoherent battle scenes are what you liked about the earlier films, the climactic one here is still both of those things. The movie is shorter than the last one, though, and considerably more bearable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Those looking for some bang for their buck would be hard-pressed to do better, as Bay offers more bangs, bells, whistles and bonkers moments than any filmmaker working today.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Watching an actor of Hopkins' caliber swear at his robo-butler and attempt to wring out laughs by uttering the word "dude" is painful -- even for a Transformers movie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>The final effect isn't exhilarating, it's enervating: a lullaby performed by a rock tumbler.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>I can't remember the last time I felt so little while watching a movie. I wasn't even bored, so much as just dazed, like I'd woken up in someone else's dream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>As if this watered-down Independence Day scenario weren't enough, the movie keeps veering off in jagged directions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>So much incoherent noise that you'll want to bang your head on the seat in front of you just to get some rest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Every few years, Michael Bay and his giant digital robots sally forth from their gilded dungeon to inflict damage on the world's brain cells. Transformers: The Last Knight is their most concerted assault yet, making me fear for the sanity of the planet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>It's hard to imagine anyone reading, let alone writing, the script and believing that it made any sort of sense at all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>The final act is a non-stop, special-effects bludgeoning of the senses that is zero fun.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Punishingly overwrought in every aspect, Last Knight is a KLANK! KLANK! KLUNKER.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Bay and Wahlberg have said this will be their last installment in the franchise. The studio should follow their lead, and put this wretched series out of our misery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>There is no redemption to be found here, only suffering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>This big, loud, dumb, dull, nonsensical dud of a movie is two and a half excruciating hours long.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>True fans probably don't need the tangled universe of good versus evil explained to them: Bionic aliens rumble; ancient monuments crumble; guys in the middle of robot Armageddon deliver wry one-liners. That's just what you do when things go boom.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>The grim suspicion grows that the intention here was to make a 2 1/2-hour movie at any cost, even with only 90 minutes worth of material.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Shapeless mounds of parts and pistons, slugging and slicing each other in front of ruins and spaceships as they gush sparks and dribble oily green robot juice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Bay's genuine determination to give you a good time still doesn't result in fun. Overlong, overstuffed and soulless, for fans who grew up with Optimus and Co, The Last Knight will sting like a bee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Freed of concerns like plausibility or story, you can simply gape in wonder at the ruthlessly thunderous images in front of you. Maybe that's the feeling of brain cells dying a painful, anguished death.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>fiiigjhkwetwnwwwjsahafajhwfohofoehaoowofoeoicioeciaqidjFaerlaeaffjgjlje XGRSXSsfdsmfjjjsomuchrandomstuffsomuchegjwogpjwd</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Transformers: The Last Knight comes in at 149 minutes, and each of those minutes lasts as long as the reign of Charlemagne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Make it stop. Make it stop. Make it stop. Make it stop.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Bay's visual sensibility has, if anything, matured, to the point of demanding and earning your exasperated surrender. He has a peerless command of the imaginative excesses of the Hollywood blockbuster.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>It has a certain gonzo purity that kept me waiting for the movie to find some other gear it never located.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>In the obliter-tainment game, Bay's simply better than that -- and on this form, he may be better than anyone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>For the first time, the messy hyperactive form and nihilistic crunched-metal content seem to reinforce each other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Anyone capable of explaining the near-incomprehensible storyline deserves a prize of some sort.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>The movie redlines its engines throughout, but none of it works -- and at 149 minutes, it feels nearly a full hour too long.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>The sensory overload of Michael Bay's hyperkinetic cinema is such that it eradicates any actual sense of place.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>The rock 'em sock 'em finale of Last Knight finally comes after over two hours...and it features, once again, the threat of Earth's complete destruction. If it means they'll stop making Transformer movies, I'm starting to think that's not such a bad deal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Transformers: The Last Knight is a punishing, pummeling experience.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Transformers: The Last Knight is an incomprehensible pile of scrap. Luckily, there's an upside -- you'll forget every single stupid frame of this thing the moment you walk out of the theatre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>transformers_the_last_knight</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Of course it's not good.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
